--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:39:54+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:11:03+00:00</t>
+    <t>2023-02-14T09:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:42:47+00:00</t>
+    <t>2023-02-14T09:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
